--- a/data/HCdata.xlsx
+++ b/data/HCdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aashayzende/Desktop/happy-cow/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A30131C-3EAA-2044-B27F-461237BB0C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D929FF0-D20B-3F45-B940-B6F3A46A04E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2220" windowWidth="26840" windowHeight="15760" activeTab="2" xr2:uid="{196AF105-B568-414E-829A-71E0443DF577}"/>
+    <workbookView xWindow="15280" yWindow="2220" windowWidth="13440" windowHeight="15760" xr2:uid="{196AF105-B568-414E-829A-71E0443DF577}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Weekly" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>Week</t>
   </si>
@@ -217,36 +217,6 @@
     <t>3 Topping</t>
   </si>
   <si>
-    <t>14/4/17</t>
-  </si>
-  <si>
-    <t>28/4/17</t>
-  </si>
-  <si>
-    <t>21/4/17</t>
-  </si>
-  <si>
-    <t>28/7/17</t>
-  </si>
-  <si>
-    <t>21/7/17</t>
-  </si>
-  <si>
-    <t>19/5/17</t>
-  </si>
-  <si>
-    <t>26/5/17</t>
-  </si>
-  <si>
-    <t>16/6/17</t>
-  </si>
-  <si>
-    <t>30/6/17</t>
-  </si>
-  <si>
-    <t>14/7/17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ice Cream Sa </t>
   </si>
   <si>
@@ -255,29 +225,14 @@
   <si>
     <t xml:space="preserve">Cus IC Sa </t>
   </si>
-  <si>
-    <t>23/6/17</t>
-  </si>
-  <si>
-    <t>15/9/17</t>
-  </si>
-  <si>
-    <t>22/9/17</t>
-  </si>
-  <si>
-    <t>29/9/17</t>
-  </si>
-  <si>
-    <t>18/8/17</t>
-  </si>
-  <si>
-    <t>25/8/17</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="175" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -320,15 +275,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -667,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E121049-A0AB-E247-8B12-815E5619FE69}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,7 +714,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>42920</v>
+        <v>42832</v>
       </c>
       <c r="B2" s="3">
         <v>6</v>
@@ -844,8 +796,8 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>59</v>
+      <c r="A3" s="4">
+        <v>42839</v>
       </c>
       <c r="B3" s="3">
         <v>21</v>
@@ -927,8 +879,8 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
+      <c r="A4" s="4">
+        <v>42846</v>
       </c>
       <c r="B4" s="3">
         <v>36</v>
@@ -1010,8 +962,8 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
+      <c r="A5" s="4">
+        <v>42853</v>
       </c>
       <c r="B5" s="3">
         <v>12</v>
@@ -1177,7 +1129,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>43074</v>
+        <v>42867</v>
       </c>
       <c r="B7" s="3">
         <v>24</v>
@@ -1259,8 +1211,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
+      <c r="A8" s="4">
+        <v>42874</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
@@ -1342,8 +1294,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>65</v>
+      <c r="A9" s="4">
+        <v>42881</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
@@ -1426,7 +1378,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>42772</v>
+        <v>42888</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
@@ -1509,7 +1461,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>42984</v>
+        <v>42895</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -1591,8 +1543,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>66</v>
+      <c r="A12" s="4">
+        <v>42902</v>
       </c>
       <c r="B12" s="3">
         <v>6</v>
@@ -1674,8 +1626,8 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>72</v>
+      <c r="A13" s="4">
+        <v>42909</v>
       </c>
       <c r="B13" s="3">
         <v>9</v>
@@ -1757,8 +1709,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>67</v>
+      <c r="A14" s="4">
+        <v>42916</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -1923,8 +1875,8 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>68</v>
+      <c r="A16" s="4">
+        <v>42930</v>
       </c>
       <c r="B16" s="3">
         <v>12</v>
@@ -2006,8 +1958,8 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>63</v>
+      <c r="A17" s="4">
+        <v>42937</v>
       </c>
       <c r="B17" s="3">
         <v>18</v>
@@ -2089,8 +2041,8 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>62</v>
+      <c r="A18" s="4">
+        <v>42944</v>
       </c>
       <c r="B18" s="3">
         <v>9</v>
@@ -2173,7 +2125,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>42833</v>
+        <v>42951</v>
       </c>
       <c r="B19" s="3">
         <v>18</v>
@@ -2256,7 +2208,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>43047</v>
+        <v>42958</v>
       </c>
       <c r="B20" s="3">
         <v>15</v>
@@ -2338,8 +2290,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
+      <c r="A21" s="4">
+        <v>42965</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2421,8 +2373,8 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>77</v>
+      <c r="A22" s="4">
+        <v>42972</v>
       </c>
       <c r="B22" s="3">
         <v>6</v>
@@ -2505,7 +2457,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>42744</v>
+        <v>42979</v>
       </c>
       <c r="B23" s="3">
         <v>21</v>
@@ -2588,7 +2540,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>42956</v>
+        <v>42986</v>
       </c>
       <c r="B24" s="3">
         <v>30</v>
@@ -2670,8 +2622,8 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
+      <c r="A25" s="4">
+        <v>42993</v>
       </c>
       <c r="B25" s="3">
         <v>3</v>
@@ -2753,8 +2705,8 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
+      <c r="A26" s="4">
+        <v>43000</v>
       </c>
       <c r="B26" s="3">
         <v>9</v>
@@ -2836,8 +2788,8 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>75</v>
+      <c r="A27" s="4">
+        <v>43007</v>
       </c>
       <c r="B27" s="3">
         <v>42</v>
@@ -2928,11 +2880,12 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+      <selection activeCell="AD31" sqref="AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="26" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2986,10 +2939,10 @@
         <v>23</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -3010,7 +2963,7 @@
         <v>32</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>33</v>
@@ -3021,7 +2974,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>42920</v>
+        <v>42832</v>
       </c>
       <c r="B2" s="3">
         <v>150</v>
@@ -3103,8 +3056,8 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>59</v>
+      <c r="A3" s="4">
+        <v>42839</v>
       </c>
       <c r="B3" s="3">
         <v>180</v>
@@ -3186,8 +3139,8 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
+      <c r="A4" s="4">
+        <v>42846</v>
       </c>
       <c r="B4" s="3">
         <v>90</v>
@@ -3269,8 +3222,8 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
+      <c r="A5" s="4">
+        <v>42853</v>
       </c>
       <c r="B5" s="3">
         <v>120</v>
@@ -3436,7 +3389,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>43074</v>
+        <v>42867</v>
       </c>
       <c r="B7" s="3">
         <v>270</v>
@@ -3518,8 +3471,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
+      <c r="A8" s="4">
+        <v>42874</v>
       </c>
       <c r="B8" s="3">
         <v>718.33332999999993</v>
@@ -3601,8 +3554,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>65</v>
+      <c r="A9" s="4">
+        <v>42881</v>
       </c>
       <c r="B9" s="3">
         <v>480</v>
@@ -3685,7 +3638,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>42772</v>
+        <v>42888</v>
       </c>
       <c r="B10" s="3">
         <v>990</v>
@@ -3768,7 +3721,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>42984</v>
+        <v>42895</v>
       </c>
       <c r="B11" s="3">
         <v>1258.3333299999999</v>
@@ -3850,8 +3803,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>66</v>
+      <c r="A12" s="4">
+        <v>42902</v>
       </c>
       <c r="B12" s="3">
         <v>960</v>
@@ -3933,8 +3886,8 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>72</v>
+      <c r="A13" s="4">
+        <v>42909</v>
       </c>
       <c r="B13" s="3">
         <v>810</v>
@@ -4016,8 +3969,8 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>67</v>
+      <c r="A14" s="4">
+        <v>42916</v>
       </c>
       <c r="B14" s="3">
         <v>689.54544999999996</v>
@@ -4182,8 +4135,8 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>68</v>
+      <c r="A16" s="4">
+        <v>42930</v>
       </c>
       <c r="B16" s="3">
         <v>390</v>
@@ -4265,8 +4218,8 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>63</v>
+      <c r="A17" s="4">
+        <v>42937</v>
       </c>
       <c r="B17" s="3">
         <v>360</v>
@@ -4348,8 +4301,8 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>62</v>
+      <c r="A18" s="4">
+        <v>42944</v>
       </c>
       <c r="B18" s="3">
         <v>360</v>
@@ -4432,7 +4385,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>42833</v>
+        <v>42951</v>
       </c>
       <c r="B19" s="3">
         <v>270</v>
@@ -4515,7 +4468,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>43047</v>
+        <v>42958</v>
       </c>
       <c r="B20" s="3">
         <v>120</v>
@@ -4597,8 +4550,8 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
+      <c r="A21" s="4">
+        <v>42965</v>
       </c>
       <c r="B21" s="3">
         <v>210</v>
@@ -4680,8 +4633,8 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>77</v>
+      <c r="A22" s="4">
+        <v>42972</v>
       </c>
       <c r="B22" s="3">
         <v>30</v>
@@ -4764,7 +4717,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>42744</v>
+        <v>42979</v>
       </c>
       <c r="B23" s="3">
         <v>120</v>
@@ -4847,7 +4800,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>42956</v>
+        <v>42986</v>
       </c>
       <c r="B24" s="3">
         <v>210</v>
@@ -4929,8 +4882,8 @@
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
+      <c r="A25" s="4">
+        <v>42993</v>
       </c>
       <c r="B25" s="3">
         <v>150</v>
@@ -5012,8 +4965,8 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
+      <c r="A26" s="4">
+        <v>43000</v>
       </c>
       <c r="B26" s="3">
         <v>480</v>
@@ -5095,8 +5048,8 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>75</v>
+      <c r="A27" s="4">
+        <v>43007</v>
       </c>
       <c r="B27" s="3">
         <v>240</v>
@@ -5186,7 +5139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADEC172-1EF7-424A-8D01-AB5B31680469}">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
@@ -5283,7 +5236,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>42920</v>
+        <v>42832</v>
       </c>
       <c r="B2" s="3">
         <v>40</v>
@@ -5368,8 +5321,8 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>59</v>
+      <c r="A3" s="4">
+        <v>42839</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -5454,8 +5407,8 @@
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
+      <c r="A4" s="4">
+        <v>42846</v>
       </c>
       <c r="B4" s="3">
         <v>111.66667</v>
@@ -5540,8 +5493,8 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
+      <c r="A5" s="4">
+        <v>42853</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -5713,7 +5666,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>43074</v>
+        <v>42867</v>
       </c>
       <c r="B7" s="3">
         <v>200</v>
@@ -5798,8 +5751,8 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
+      <c r="A8" s="4">
+        <v>42874</v>
       </c>
       <c r="B8" s="3">
         <v>40</v>
@@ -5884,8 +5837,8 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>65</v>
+      <c r="A9" s="4">
+        <v>42881</v>
       </c>
       <c r="B9" s="3">
         <v>40</v>
@@ -5971,7 +5924,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>42772</v>
+        <v>42888</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6057,7 +6010,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>42984</v>
+        <v>42895</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6142,8 +6095,8 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>66</v>
+      <c r="A12" s="4">
+        <v>42902</v>
       </c>
       <c r="B12" s="3">
         <v>40</v>
@@ -6228,8 +6181,8 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>72</v>
+      <c r="A13" s="4">
+        <v>42909</v>
       </c>
       <c r="B13" s="3">
         <v>40</v>
@@ -6314,8 +6267,8 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>67</v>
+      <c r="A14" s="4">
+        <v>42916</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -6486,8 +6439,8 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>68</v>
+      <c r="A16" s="4">
+        <v>42930</v>
       </c>
       <c r="B16" s="3">
         <v>400</v>
@@ -6572,8 +6525,8 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>63</v>
+      <c r="A17" s="4">
+        <v>42937</v>
       </c>
       <c r="B17" s="3">
         <v>40</v>
@@ -6658,8 +6611,8 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>62</v>
+      <c r="A18" s="4">
+        <v>42944</v>
       </c>
       <c r="B18" s="3">
         <v>600</v>
@@ -6745,7 +6698,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>42833</v>
+        <v>42951</v>
       </c>
       <c r="B19" s="3">
         <v>440</v>
@@ -6831,7 +6784,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>43047</v>
+        <v>42958</v>
       </c>
       <c r="B20" s="3">
         <v>479.16667000000001</v>
@@ -6916,8 +6869,8 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
+      <c r="A21" s="4">
+        <v>42965</v>
       </c>
       <c r="B21" s="3">
         <v>520</v>
@@ -7002,8 +6955,8 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>77</v>
+      <c r="A22" s="4">
+        <v>42972</v>
       </c>
       <c r="B22" s="3">
         <v>720</v>
@@ -7089,7 +7042,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>42744</v>
+        <v>42979</v>
       </c>
       <c r="B23" s="3">
         <v>240</v>
@@ -7175,7 +7128,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>42956</v>
+        <v>42986</v>
       </c>
       <c r="B24" s="3">
         <v>80</v>
@@ -7260,8 +7213,8 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
+      <c r="A25" s="4">
+        <v>42993</v>
       </c>
       <c r="B25" s="3">
         <v>80</v>
@@ -7346,8 +7299,8 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>74</v>
+      <c r="A26" s="4">
+        <v>43000</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
@@ -7432,8 +7385,8 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>75</v>
+      <c r="A27" s="4">
+        <v>43007</v>
       </c>
       <c r="B27" s="3">
         <v>120</v>

--- a/data/HCdata.xlsx
+++ b/data/HCdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aashayzende/Desktop/happy-cow/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D929FF0-D20B-3F45-B940-B6F3A46A04E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01967D10-2A6F-FE4B-A081-5604BDE1DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="2220" windowWidth="13440" windowHeight="15760" xr2:uid="{196AF105-B568-414E-829A-71E0443DF577}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A27"/>
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5140,7 +5140,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A27"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">

--- a/data/HCdata.xlsx
+++ b/data/HCdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aashayzende/Desktop/happy-cow/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01967D10-2A6F-FE4B-A081-5604BDE1DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9149E5BA-2002-5344-AA93-996C3E96A180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="2220" windowWidth="13440" windowHeight="15760" xr2:uid="{196AF105-B568-414E-829A-71E0443DF577}"/>
+    <workbookView xWindow="15280" yWindow="2220" windowWidth="13440" windowHeight="15760" activeTab="1" xr2:uid="{196AF105-B568-414E-829A-71E0443DF577}"/>
   </bookViews>
   <sheets>
     <sheet name="Student Weekly" sheetId="1" r:id="rId1"/>
-    <sheet name="Staff Weekly" sheetId="2" r:id="rId2"/>
-    <sheet name="Tourist Weekly" sheetId="3" r:id="rId3"/>
+    <sheet name="Hourly" sheetId="5" r:id="rId2"/>
+    <sheet name="Staff Weekly" sheetId="2" r:id="rId3"/>
+    <sheet name="Tourist Weekly" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>Week</t>
   </si>
@@ -225,15 +226,25 @@
   <si>
     <t xml:space="preserve">Cus IC Sa </t>
   </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>TOTAL HOURLY SALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVERAGE hourly sales </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="175" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm:ss\ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -243,6 +254,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -263,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -271,11 +289,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -283,6 +350,12 @@
     <xf numFmtId="175" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,14 +692,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E121049-A0AB-E247-8B12-815E5619FE69}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="26" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
@@ -2876,2258 +2949,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37102EA-5EDD-1346-9ADB-1A82B906731B}">
-  <dimension ref="A1:AA27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC58F8F1-2C12-1849-ABDB-CEA8AE0A009B}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD31" sqref="AD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="26" width="0" hidden="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>42832</v>
-      </c>
-      <c r="B2" s="3">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3">
-        <v>240</v>
-      </c>
-      <c r="D2" s="3">
-        <v>210</v>
-      </c>
-      <c r="E2" s="3">
-        <v>210</v>
-      </c>
-      <c r="F2" s="3">
-        <v>210</v>
-      </c>
-      <c r="G2" s="3">
-        <v>210</v>
-      </c>
-      <c r="H2" s="3">
-        <v>96</v>
-      </c>
-      <c r="I2" s="3">
-        <v>120</v>
-      </c>
-      <c r="J2" s="3">
-        <v>60</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>60</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>60</v>
-      </c>
-      <c r="O2" s="3">
-        <v>30</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>204</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>30</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>42839</v>
-      </c>
-      <c r="B3" s="3">
-        <v>180</v>
-      </c>
-      <c r="C3" s="3">
-        <v>180</v>
-      </c>
-      <c r="D3" s="3">
-        <v>180</v>
-      </c>
-      <c r="E3" s="3">
-        <v>150</v>
-      </c>
-      <c r="F3" s="3">
-        <v>60</v>
-      </c>
-      <c r="G3" s="3">
-        <v>150</v>
-      </c>
-      <c r="H3" s="3">
-        <v>89.5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>117.5</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>120</v>
-      </c>
-      <c r="O3" s="3">
-        <v>30</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>42846</v>
-      </c>
-      <c r="B4" s="3">
-        <v>90</v>
-      </c>
-      <c r="C4" s="3">
-        <v>300</v>
-      </c>
-      <c r="D4" s="3">
-        <v>450</v>
-      </c>
-      <c r="E4" s="3">
-        <v>360</v>
-      </c>
-      <c r="F4" s="3">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3">
-        <v>120</v>
-      </c>
-      <c r="H4" s="3">
-        <v>90</v>
-      </c>
-      <c r="I4" s="3">
-        <v>150</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3">
-        <v>90</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>120</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>68</v>
-      </c>
-      <c r="R4" s="3">
-        <v>30</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>42853</v>
-      </c>
-      <c r="B5" s="3">
-        <v>120</v>
-      </c>
-      <c r="C5" s="3">
-        <v>210</v>
-      </c>
-      <c r="D5" s="3">
-        <v>180</v>
-      </c>
-      <c r="E5" s="3">
-        <v>180</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>120</v>
-      </c>
-      <c r="H5" s="3">
-        <v>78</v>
-      </c>
-      <c r="I5" s="3">
-        <v>60</v>
-      </c>
-      <c r="J5" s="3">
-        <v>270</v>
-      </c>
-      <c r="K5" s="3">
-        <v>120</v>
-      </c>
-      <c r="L5" s="3">
-        <v>180</v>
-      </c>
-      <c r="M5" s="3">
-        <v>30</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>90</v>
-      </c>
-      <c r="P5" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>30</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>42860</v>
-      </c>
-      <c r="B6" s="3">
-        <v>120</v>
-      </c>
-      <c r="C6" s="3">
-        <v>90</v>
-      </c>
-      <c r="D6" s="3">
-        <v>180</v>
-      </c>
-      <c r="E6" s="3">
-        <v>120</v>
-      </c>
-      <c r="F6" s="3">
-        <v>180</v>
-      </c>
-      <c r="G6" s="3">
-        <v>150</v>
-      </c>
-      <c r="H6" s="3">
-        <v>102</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>180</v>
-      </c>
-      <c r="K6" s="3">
-        <v>150</v>
-      </c>
-      <c r="L6" s="3">
-        <v>60</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>150</v>
-      </c>
-      <c r="O6" s="3">
-        <v>90</v>
-      </c>
-      <c r="P6" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>102</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>1708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>42867</v>
-      </c>
-      <c r="B7" s="3">
-        <v>270</v>
-      </c>
-      <c r="C7" s="3">
-        <v>360</v>
-      </c>
-      <c r="D7" s="3">
-        <v>90</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-      <c r="F7" s="3">
-        <v>210</v>
-      </c>
-      <c r="G7" s="3">
-        <v>90</v>
-      </c>
-      <c r="H7" s="3">
-        <v>114</v>
-      </c>
-      <c r="I7" s="3">
-        <v>30</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>60</v>
-      </c>
-      <c r="L7" s="3">
-        <v>30</v>
-      </c>
-      <c r="M7" s="3">
-        <v>60</v>
-      </c>
-      <c r="N7" s="3">
-        <v>90</v>
-      </c>
-      <c r="O7" s="3">
-        <v>180</v>
-      </c>
-      <c r="P7" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>170</v>
-      </c>
-      <c r="R7" s="3">
-        <v>150</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>42874</v>
-      </c>
-      <c r="B8" s="3">
-        <v>718.33332999999993</v>
-      </c>
-      <c r="C8" s="3">
-        <v>298.33332999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>330</v>
-      </c>
-      <c r="E8" s="3">
-        <v>180</v>
-      </c>
-      <c r="F8" s="3">
-        <v>420</v>
-      </c>
-      <c r="G8" s="3">
-        <v>150</v>
-      </c>
-      <c r="H8" s="3">
-        <v>192</v>
-      </c>
-      <c r="I8" s="3">
-        <v>60</v>
-      </c>
-      <c r="J8" s="3">
-        <v>28.33333</v>
-      </c>
-      <c r="K8" s="3">
-        <v>88.333329999999989</v>
-      </c>
-      <c r="L8" s="3">
-        <v>120</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>28.33333</v>
-      </c>
-      <c r="O8" s="3">
-        <v>30</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>120</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>28.33333</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>210</v>
-      </c>
-      <c r="X8" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3005.9999799999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>42881</v>
-      </c>
-      <c r="B9" s="3">
-        <v>480</v>
-      </c>
-      <c r="C9" s="3">
-        <v>390</v>
-      </c>
-      <c r="D9" s="3">
-        <v>300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>120</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>115</v>
-      </c>
-      <c r="H9" s="3">
-        <v>102</v>
-      </c>
-      <c r="I9" s="3">
-        <v>240</v>
-      </c>
-      <c r="J9" s="3">
-        <v>60</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>180</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>60</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>145</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>680</v>
-      </c>
-      <c r="R9" s="3">
-        <v>150</v>
-      </c>
-      <c r="S9" s="3">
-        <v>30</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>90</v>
-      </c>
-      <c r="X9" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>42888</v>
-      </c>
-      <c r="B10" s="3">
-        <v>990</v>
-      </c>
-      <c r="C10" s="3">
-        <v>690</v>
-      </c>
-      <c r="D10" s="3">
-        <v>450</v>
-      </c>
-      <c r="E10" s="3">
-        <v>180</v>
-      </c>
-      <c r="F10" s="3">
-        <v>360</v>
-      </c>
-      <c r="G10" s="3">
-        <v>60</v>
-      </c>
-      <c r="H10" s="3">
-        <v>306</v>
-      </c>
-      <c r="I10" s="3">
-        <v>570</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>180</v>
-      </c>
-      <c r="L10" s="3">
-        <v>30</v>
-      </c>
-      <c r="M10" s="3">
-        <v>30</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>60</v>
-      </c>
-      <c r="P10" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>34</v>
-      </c>
-      <c r="R10" s="3">
-        <v>30</v>
-      </c>
-      <c r="S10" s="3">
-        <v>390</v>
-      </c>
-      <c r="T10" s="3">
-        <v>150</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
-        <v>120</v>
-      </c>
-      <c r="X10" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>4672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>42895</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1258.3333299999999</v>
-      </c>
-      <c r="C11" s="3">
-        <v>444.33332999999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>474.33332999999999</v>
-      </c>
-      <c r="E11" s="3">
-        <v>540</v>
-      </c>
-      <c r="F11" s="3">
-        <v>200</v>
-      </c>
-      <c r="G11" s="3">
-        <v>596</v>
-      </c>
-      <c r="H11" s="3">
-        <v>312</v>
-      </c>
-      <c r="I11" s="3">
-        <v>150</v>
-      </c>
-      <c r="J11" s="3">
-        <v>30</v>
-      </c>
-      <c r="K11" s="3">
-        <v>510</v>
-      </c>
-      <c r="L11" s="3">
-        <v>58.333330000000004</v>
-      </c>
-      <c r="M11" s="3">
-        <v>116</v>
-      </c>
-      <c r="N11" s="3">
-        <v>58.333330000000004</v>
-      </c>
-      <c r="O11" s="3">
-        <v>60</v>
-      </c>
-      <c r="P11" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>30</v>
-      </c>
-      <c r="S11" s="3">
-        <v>270</v>
-      </c>
-      <c r="T11" s="3">
-        <v>474.33332999999999</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
-        <v>480</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>6142.9999800000014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>42902</v>
-      </c>
-      <c r="B12" s="3">
-        <v>960</v>
-      </c>
-      <c r="C12" s="3">
-        <v>660</v>
-      </c>
-      <c r="D12" s="3">
-        <v>300</v>
-      </c>
-      <c r="E12" s="3">
-        <v>510</v>
-      </c>
-      <c r="F12" s="3">
-        <v>270</v>
-      </c>
-      <c r="G12" s="3">
-        <v>570</v>
-      </c>
-      <c r="H12" s="3">
-        <v>390</v>
-      </c>
-      <c r="I12" s="3">
-        <v>270</v>
-      </c>
-      <c r="J12" s="3">
-        <v>510</v>
-      </c>
-      <c r="K12" s="3">
-        <v>270</v>
-      </c>
-      <c r="L12" s="3">
-        <v>90</v>
-      </c>
-      <c r="M12" s="3">
-        <v>510</v>
-      </c>
-      <c r="N12" s="3">
-        <v>30</v>
-      </c>
-      <c r="O12" s="3">
-        <v>90</v>
-      </c>
-      <c r="P12" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>30</v>
-      </c>
-      <c r="S12" s="3">
-        <v>30</v>
-      </c>
-      <c r="T12" s="3">
-        <v>210</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>390</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>6188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>42909</v>
-      </c>
-      <c r="B13" s="3">
-        <v>810</v>
-      </c>
-      <c r="C13" s="3">
-        <v>210</v>
-      </c>
-      <c r="D13" s="3">
-        <v>390</v>
-      </c>
-      <c r="E13" s="3">
-        <v>750</v>
-      </c>
-      <c r="F13" s="3">
-        <v>300</v>
-      </c>
-      <c r="G13" s="3">
-        <v>90</v>
-      </c>
-      <c r="H13" s="3">
-        <v>288</v>
-      </c>
-      <c r="I13" s="3">
-        <v>420</v>
-      </c>
-      <c r="J13" s="3">
-        <v>390</v>
-      </c>
-      <c r="K13" s="3">
-        <v>120</v>
-      </c>
-      <c r="L13" s="3">
-        <v>60</v>
-      </c>
-      <c r="M13" s="3">
-        <v>300</v>
-      </c>
-      <c r="N13" s="3">
-        <v>30</v>
-      </c>
-      <c r="O13" s="3">
-        <v>60</v>
-      </c>
-      <c r="P13" s="3">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3">
-        <v>30</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3">
-        <v>60</v>
-      </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>42916</v>
-      </c>
-      <c r="B14" s="3">
-        <v>689.54544999999996</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1227.4242400000001</v>
-      </c>
-      <c r="D14" s="3">
-        <v>749.54544999999996</v>
-      </c>
-      <c r="E14" s="3">
-        <v>359.09090000000003</v>
-      </c>
-      <c r="F14" s="3">
-        <v>809.54545000000007</v>
-      </c>
-      <c r="G14" s="3">
-        <v>599.09090000000003</v>
-      </c>
-      <c r="H14" s="3">
-        <v>390</v>
-      </c>
-      <c r="I14" s="3">
-        <v>329.09090000000003</v>
-      </c>
-      <c r="J14" s="3">
-        <v>147.87879000000001</v>
-      </c>
-      <c r="K14" s="3">
-        <v>448.25756999999999</v>
-      </c>
-      <c r="L14" s="3">
-        <v>419.54544999999996</v>
-      </c>
-      <c r="M14" s="3">
-        <v>89.545450000000002</v>
-      </c>
-      <c r="N14" s="3">
-        <v>479.54545000000002</v>
-      </c>
-      <c r="O14" s="3">
-        <v>419.54544999999996</v>
-      </c>
-      <c r="P14" s="3">
-        <v>808.25756999999999</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>68</v>
-      </c>
-      <c r="R14" s="3">
-        <v>89.545450000000002</v>
-      </c>
-      <c r="S14" s="3">
-        <v>420</v>
-      </c>
-      <c r="T14" s="3">
-        <v>89.545450000000002</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>32</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>8664.9999199999966</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>42923</v>
-      </c>
-      <c r="B15" s="3">
-        <v>420</v>
-      </c>
-      <c r="C15" s="3">
-        <v>300</v>
-      </c>
-      <c r="D15" s="3">
-        <v>630</v>
-      </c>
-      <c r="E15" s="3">
-        <v>90</v>
-      </c>
-      <c r="F15" s="3">
-        <v>120</v>
-      </c>
-      <c r="G15" s="3">
-        <v>480</v>
-      </c>
-      <c r="H15" s="3">
-        <v>204</v>
-      </c>
-      <c r="I15" s="3">
-        <v>30</v>
-      </c>
-      <c r="J15" s="3">
-        <v>240</v>
-      </c>
-      <c r="K15" s="3">
-        <v>60</v>
-      </c>
-      <c r="L15" s="3">
-        <v>90</v>
-      </c>
-      <c r="M15" s="3">
-        <v>90</v>
-      </c>
-      <c r="N15" s="3">
-        <v>360</v>
-      </c>
-      <c r="O15" s="3">
-        <v>270</v>
-      </c>
-      <c r="P15" s="3">
-        <v>120</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>34</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>30</v>
-      </c>
-      <c r="T15" s="3">
-        <v>90</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>3662</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>42930</v>
-      </c>
-      <c r="B16" s="3">
-        <v>390</v>
-      </c>
-      <c r="C16" s="3">
-        <v>150</v>
-      </c>
-      <c r="D16" s="3">
-        <v>120</v>
-      </c>
-      <c r="E16" s="3">
-        <v>150</v>
-      </c>
-      <c r="F16" s="3">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3">
-        <v>150</v>
-      </c>
-      <c r="H16" s="3">
-        <v>144</v>
-      </c>
-      <c r="I16" s="3">
-        <v>90</v>
-      </c>
-      <c r="J16" s="3">
-        <v>450</v>
-      </c>
-      <c r="K16" s="3">
-        <v>300</v>
-      </c>
-      <c r="L16" s="3">
-        <v>30</v>
-      </c>
-      <c r="M16" s="3">
-        <v>360</v>
-      </c>
-      <c r="N16" s="3">
-        <v>90</v>
-      </c>
-      <c r="O16" s="3">
-        <v>150</v>
-      </c>
-      <c r="P16" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>34</v>
-      </c>
-      <c r="R16" s="3">
-        <v>120</v>
-      </c>
-      <c r="S16" s="3">
-        <v>90</v>
-      </c>
-      <c r="T16" s="3">
-        <v>30</v>
-      </c>
-      <c r="U16" s="3">
-        <v>210</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>60</v>
-      </c>
-      <c r="X16" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>3216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>42937</v>
-      </c>
-      <c r="B17" s="3">
-        <v>360</v>
-      </c>
-      <c r="C17" s="3">
-        <v>150</v>
-      </c>
-      <c r="D17" s="3">
-        <v>180</v>
-      </c>
-      <c r="E17" s="3">
-        <v>90</v>
-      </c>
-      <c r="F17" s="3">
-        <v>270</v>
-      </c>
-      <c r="G17" s="3">
-        <v>30</v>
-      </c>
-      <c r="H17" s="3">
-        <v>120</v>
-      </c>
-      <c r="I17" s="3">
-        <v>120</v>
-      </c>
-      <c r="J17" s="3">
-        <v>60</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>180</v>
-      </c>
-      <c r="N17" s="3">
-        <v>30</v>
-      </c>
-      <c r="O17" s="3">
-        <v>30</v>
-      </c>
-      <c r="P17" s="3">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>136</v>
-      </c>
-      <c r="R17" s="3">
-        <v>240</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>180</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>90</v>
-      </c>
-      <c r="X17" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>42944</v>
-      </c>
-      <c r="B18" s="3">
-        <v>360</v>
-      </c>
-      <c r="C18" s="3">
-        <v>360</v>
-      </c>
-      <c r="D18" s="3">
-        <v>90</v>
-      </c>
-      <c r="E18" s="3">
-        <v>90</v>
-      </c>
-      <c r="F18" s="3">
-        <v>60</v>
-      </c>
-      <c r="G18" s="3">
-        <v>240</v>
-      </c>
-      <c r="H18" s="3">
-        <v>102</v>
-      </c>
-      <c r="I18" s="3">
-        <v>210</v>
-      </c>
-      <c r="J18" s="3">
-        <v>30</v>
-      </c>
-      <c r="K18" s="3">
-        <v>30</v>
-      </c>
-      <c r="L18" s="3">
-        <v>90</v>
-      </c>
-      <c r="M18" s="3">
-        <v>90</v>
-      </c>
-      <c r="N18" s="3">
-        <v>90</v>
-      </c>
-      <c r="O18" s="3">
-        <v>90</v>
-      </c>
-      <c r="P18" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>102</v>
-      </c>
-      <c r="R18" s="3">
-        <v>90</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>60</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>2214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>42951</v>
-      </c>
-      <c r="B19" s="3">
-        <v>270</v>
-      </c>
-      <c r="C19" s="3">
-        <v>60</v>
-      </c>
-      <c r="D19" s="3">
-        <v>390</v>
-      </c>
-      <c r="E19" s="3">
-        <v>270</v>
-      </c>
-      <c r="F19" s="3">
-        <v>330</v>
-      </c>
-      <c r="G19" s="3">
-        <v>120</v>
-      </c>
-      <c r="H19" s="3">
-        <v>192</v>
-      </c>
-      <c r="I19" s="3">
-        <v>180</v>
-      </c>
-      <c r="J19" s="3">
-        <v>30</v>
-      </c>
-      <c r="K19" s="3">
-        <v>60</v>
-      </c>
-      <c r="L19" s="3">
-        <v>210</v>
-      </c>
-      <c r="M19" s="3">
-        <v>60</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
-        <v>60</v>
-      </c>
-      <c r="P19" s="3">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
-        <v>180</v>
-      </c>
-      <c r="X19" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>42958</v>
-      </c>
-      <c r="B20" s="3">
-        <v>120</v>
-      </c>
-      <c r="C20" s="3">
-        <v>240</v>
-      </c>
-      <c r="D20" s="3">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3">
-        <v>240</v>
-      </c>
-      <c r="F20" s="3">
-        <v>150</v>
-      </c>
-      <c r="G20" s="3">
-        <v>150</v>
-      </c>
-      <c r="H20" s="3">
-        <v>126</v>
-      </c>
-      <c r="I20" s="3">
-        <v>90</v>
-      </c>
-      <c r="J20" s="3">
-        <v>210</v>
-      </c>
-      <c r="K20" s="3">
-        <v>30</v>
-      </c>
-      <c r="L20" s="3">
-        <v>150</v>
-      </c>
-      <c r="M20" s="3">
-        <v>60</v>
-      </c>
-      <c r="N20" s="3">
-        <v>30</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>34</v>
-      </c>
-      <c r="R20" s="3">
-        <v>150</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>60</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
-        <v>30</v>
-      </c>
-      <c r="X20" s="3">
-        <v>8</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>84</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>42965</v>
-      </c>
-      <c r="B21" s="3">
-        <v>210</v>
-      </c>
-      <c r="C21" s="3">
-        <v>540</v>
-      </c>
-      <c r="D21" s="3">
-        <v>60</v>
-      </c>
-      <c r="E21" s="3">
-        <v>30</v>
-      </c>
-      <c r="F21" s="3">
-        <v>330</v>
-      </c>
-      <c r="G21" s="3">
-        <v>180</v>
-      </c>
-      <c r="H21" s="3">
-        <v>144</v>
-      </c>
-      <c r="I21" s="3">
-        <v>120</v>
-      </c>
-      <c r="J21" s="3">
-        <v>180</v>
-      </c>
-      <c r="K21" s="3">
-        <v>60</v>
-      </c>
-      <c r="L21" s="3">
-        <v>30</v>
-      </c>
-      <c r="M21" s="3">
-        <v>90</v>
-      </c>
-      <c r="N21" s="3">
-        <v>30</v>
-      </c>
-      <c r="O21" s="3">
-        <v>30</v>
-      </c>
-      <c r="P21" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>170</v>
-      </c>
-      <c r="R21" s="3">
-        <v>120</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>30</v>
-      </c>
-      <c r="U21" s="3">
-        <v>240</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>42972</v>
-      </c>
-      <c r="B22" s="3">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3">
-        <v>300</v>
-      </c>
-      <c r="D22" s="3">
-        <v>90</v>
-      </c>
-      <c r="E22" s="3">
-        <v>150</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>210</v>
-      </c>
-      <c r="H22" s="3">
-        <v>78</v>
-      </c>
-      <c r="I22" s="3">
-        <v>180</v>
-      </c>
-      <c r="J22" s="3">
-        <v>90</v>
-      </c>
-      <c r="K22" s="3">
-        <v>30</v>
-      </c>
-      <c r="L22" s="3">
-        <v>330</v>
-      </c>
-      <c r="M22" s="3">
-        <v>90</v>
-      </c>
-      <c r="N22" s="3">
-        <v>120</v>
-      </c>
-      <c r="O22" s="3">
-        <v>30</v>
-      </c>
-      <c r="P22" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>150</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>210</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>42979</v>
-      </c>
-      <c r="B23" s="3">
-        <v>120</v>
-      </c>
-      <c r="C23" s="3">
-        <v>270</v>
-      </c>
-      <c r="D23" s="3">
-        <v>150</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>150</v>
-      </c>
-      <c r="G23" s="3">
-        <v>180</v>
-      </c>
-      <c r="H23" s="3">
-        <v>114</v>
-      </c>
-      <c r="I23" s="3">
-        <v>60</v>
-      </c>
-      <c r="J23" s="3">
-        <v>90</v>
-      </c>
-      <c r="K23" s="3">
-        <v>30</v>
-      </c>
-      <c r="L23" s="3">
-        <v>270</v>
-      </c>
-      <c r="M23" s="3">
-        <v>150</v>
-      </c>
-      <c r="N23" s="3">
-        <v>210</v>
-      </c>
-      <c r="O23" s="3">
-        <v>60</v>
-      </c>
-      <c r="P23" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>30</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>42986</v>
-      </c>
-      <c r="B24" s="3">
-        <v>210</v>
-      </c>
-      <c r="C24" s="3">
-        <v>90</v>
-      </c>
-      <c r="D24" s="3">
-        <v>210</v>
-      </c>
-      <c r="E24" s="3">
-        <v>60</v>
-      </c>
-      <c r="F24" s="3">
-        <v>150</v>
-      </c>
-      <c r="G24" s="3">
-        <v>240</v>
-      </c>
-      <c r="H24" s="3">
-        <v>114</v>
-      </c>
-      <c r="I24" s="3">
-        <v>150</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>150</v>
-      </c>
-      <c r="L24" s="3">
-        <v>30</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>120</v>
-      </c>
-      <c r="O24" s="3">
-        <v>180</v>
-      </c>
-      <c r="P24" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>60</v>
-      </c>
-      <c r="S24" s="3">
-        <v>30</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>16</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>42993</v>
-      </c>
-      <c r="B25" s="3">
-        <v>150</v>
-      </c>
-      <c r="C25" s="3">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3">
-        <v>120</v>
-      </c>
-      <c r="E25" s="3">
-        <v>120</v>
-      </c>
-      <c r="F25" s="3">
-        <v>60</v>
-      </c>
-      <c r="G25" s="3">
-        <v>180</v>
-      </c>
-      <c r="H25" s="3">
-        <v>72</v>
-      </c>
-      <c r="I25" s="3">
-        <v>150</v>
-      </c>
-      <c r="J25" s="3">
-        <v>150</v>
-      </c>
-      <c r="K25" s="3">
-        <v>90</v>
-      </c>
-      <c r="L25" s="3">
-        <v>30</v>
-      </c>
-      <c r="M25" s="3">
-        <v>150</v>
-      </c>
-      <c r="N25" s="3">
-        <v>150</v>
-      </c>
-      <c r="O25" s="3">
-        <v>210</v>
-      </c>
-      <c r="P25" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <v>60</v>
-      </c>
-      <c r="S25" s="3">
-        <v>60</v>
-      </c>
-      <c r="T25" s="3">
-        <v>60</v>
-      </c>
-      <c r="U25" s="3">
-        <v>30</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>43000</v>
-      </c>
-      <c r="B26" s="3">
-        <v>480</v>
-      </c>
-      <c r="C26" s="3">
-        <v>120</v>
-      </c>
-      <c r="D26" s="3">
-        <v>180</v>
-      </c>
-      <c r="E26" s="3">
-        <v>300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>363.33332999999999</v>
-      </c>
-      <c r="G26" s="3">
-        <v>186.66667000000001</v>
-      </c>
-      <c r="H26" s="3">
-        <v>60</v>
-      </c>
-      <c r="I26" s="3">
-        <v>60</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>120</v>
-      </c>
-      <c r="L26" s="3">
-        <v>60</v>
-      </c>
-      <c r="M26" s="3">
-        <v>90</v>
-      </c>
-      <c r="N26" s="3">
-        <v>30</v>
-      </c>
-      <c r="O26" s="3">
-        <v>60</v>
-      </c>
-      <c r="P26" s="3">
-        <v>60</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>90</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>30</v>
-      </c>
-      <c r="U26" s="3">
-        <v>30</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>43007</v>
-      </c>
-      <c r="B27" s="3">
-        <v>240</v>
-      </c>
-      <c r="C27" s="3">
-        <v>120</v>
-      </c>
-      <c r="D27" s="3">
-        <v>330</v>
-      </c>
-      <c r="E27" s="3">
-        <v>120</v>
-      </c>
-      <c r="F27" s="3">
-        <v>150</v>
-      </c>
-      <c r="G27" s="3">
-        <v>60</v>
-      </c>
-      <c r="H27" s="3">
-        <v>54</v>
-      </c>
-      <c r="I27" s="3">
-        <v>30</v>
-      </c>
-      <c r="J27" s="3">
-        <v>90</v>
-      </c>
-      <c r="K27" s="3">
-        <v>90</v>
-      </c>
-      <c r="L27" s="3">
-        <v>90</v>
-      </c>
-      <c r="M27" s="3">
-        <v>30</v>
-      </c>
-      <c r="N27" s="3">
-        <v>60</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>30</v>
-      </c>
-      <c r="S27" s="3">
-        <v>90</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>30</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>8</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>1652</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="B14" s="8">
+        <v>25793.999980000001</v>
+      </c>
+      <c r="C14" s="8">
+        <v>120.53271018691589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="8">
+        <v>58110</v>
+      </c>
+      <c r="C15" s="8">
+        <v>271.54205607476638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B16" s="8">
+        <v>49657.999900000003</v>
+      </c>
+      <c r="C16" s="8">
+        <v>232.0467285046729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="B17" s="8">
+        <v>43801</v>
+      </c>
+      <c r="C17" s="8">
+        <v>204.67757009345794</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45605</v>
+      </c>
+      <c r="C18" s="8">
+        <v>213.10747663551402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B19" s="8">
+        <v>39613.000039999999</v>
+      </c>
+      <c r="C19" s="8">
+        <v>185.1074768224299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="B20" s="8">
+        <v>30017.99999</v>
+      </c>
+      <c r="C20" s="8">
+        <v>140.2710279906542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8872.4999800000005</v>
+      </c>
+      <c r="C21" s="8">
+        <v>41.460280280373837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>0.875</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5136,16 +3239,2276 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADEC172-1EF7-424A-8D01-AB5B31680469}">
-  <dimension ref="A1:AB28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37102EA-5EDD-1346-9ADB-1A82B906731B}">
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection sqref="A1:AA1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="26" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>42832</v>
+      </c>
+      <c r="B2" s="3">
+        <v>150</v>
+      </c>
+      <c r="C2" s="3">
+        <v>240</v>
+      </c>
+      <c r="D2" s="3">
+        <v>210</v>
+      </c>
+      <c r="E2" s="3">
+        <v>210</v>
+      </c>
+      <c r="F2" s="3">
+        <v>210</v>
+      </c>
+      <c r="G2" s="3">
+        <v>210</v>
+      </c>
+      <c r="H2" s="3">
+        <v>96</v>
+      </c>
+      <c r="I2" s="3">
+        <v>120</v>
+      </c>
+      <c r="J2" s="3">
+        <v>60</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>60</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>60</v>
+      </c>
+      <c r="O2" s="3">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>204</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>30</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>42839</v>
+      </c>
+      <c r="B3" s="3">
+        <v>180</v>
+      </c>
+      <c r="C3" s="3">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3">
+        <v>180</v>
+      </c>
+      <c r="E3" s="3">
+        <v>150</v>
+      </c>
+      <c r="F3" s="3">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3">
+        <v>150</v>
+      </c>
+      <c r="H3" s="3">
+        <v>89.5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>117.5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>120</v>
+      </c>
+      <c r="O3" s="3">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>42846</v>
+      </c>
+      <c r="B4" s="3">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3">
+        <v>300</v>
+      </c>
+      <c r="D4" s="3">
+        <v>450</v>
+      </c>
+      <c r="E4" s="3">
+        <v>360</v>
+      </c>
+      <c r="F4" s="3">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3">
+        <v>120</v>
+      </c>
+      <c r="H4" s="3">
+        <v>90</v>
+      </c>
+      <c r="I4" s="3">
+        <v>150</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3">
+        <v>90</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>120</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>68</v>
+      </c>
+      <c r="R4" s="3">
+        <v>30</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>42853</v>
+      </c>
+      <c r="B5" s="3">
+        <v>120</v>
+      </c>
+      <c r="C5" s="3">
+        <v>210</v>
+      </c>
+      <c r="D5" s="3">
+        <v>180</v>
+      </c>
+      <c r="E5" s="3">
+        <v>180</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>120</v>
+      </c>
+      <c r="H5" s="3">
+        <v>78</v>
+      </c>
+      <c r="I5" s="3">
+        <v>60</v>
+      </c>
+      <c r="J5" s="3">
+        <v>270</v>
+      </c>
+      <c r="K5" s="3">
+        <v>120</v>
+      </c>
+      <c r="L5" s="3">
+        <v>180</v>
+      </c>
+      <c r="M5" s="3">
+        <v>30</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>90</v>
+      </c>
+      <c r="P5" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>30</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>42860</v>
+      </c>
+      <c r="B6" s="3">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3">
+        <v>180</v>
+      </c>
+      <c r="E6" s="3">
+        <v>120</v>
+      </c>
+      <c r="F6" s="3">
+        <v>180</v>
+      </c>
+      <c r="G6" s="3">
+        <v>150</v>
+      </c>
+      <c r="H6" s="3">
+        <v>102</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>180</v>
+      </c>
+      <c r="K6" s="3">
+        <v>150</v>
+      </c>
+      <c r="L6" s="3">
+        <v>60</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>150</v>
+      </c>
+      <c r="O6" s="3">
+        <v>90</v>
+      </c>
+      <c r="P6" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>102</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>42867</v>
+      </c>
+      <c r="B7" s="3">
+        <v>270</v>
+      </c>
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+      <c r="D7" s="3">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+      <c r="F7" s="3">
+        <v>210</v>
+      </c>
+      <c r="G7" s="3">
+        <v>90</v>
+      </c>
+      <c r="H7" s="3">
+        <v>114</v>
+      </c>
+      <c r="I7" s="3">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>60</v>
+      </c>
+      <c r="L7" s="3">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3">
+        <v>60</v>
+      </c>
+      <c r="N7" s="3">
+        <v>90</v>
+      </c>
+      <c r="O7" s="3">
+        <v>180</v>
+      </c>
+      <c r="P7" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>170</v>
+      </c>
+      <c r="R7" s="3">
+        <v>150</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>42874</v>
+      </c>
+      <c r="B8" s="3">
+        <v>718.33332999999993</v>
+      </c>
+      <c r="C8" s="3">
+        <v>298.33332999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>330</v>
+      </c>
+      <c r="E8" s="3">
+        <v>180</v>
+      </c>
+      <c r="F8" s="3">
+        <v>420</v>
+      </c>
+      <c r="G8" s="3">
+        <v>150</v>
+      </c>
+      <c r="H8" s="3">
+        <v>192</v>
+      </c>
+      <c r="I8" s="3">
+        <v>60</v>
+      </c>
+      <c r="J8" s="3">
+        <v>28.33333</v>
+      </c>
+      <c r="K8" s="3">
+        <v>88.333329999999989</v>
+      </c>
+      <c r="L8" s="3">
+        <v>120</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>28.33333</v>
+      </c>
+      <c r="O8" s="3">
+        <v>30</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>120</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>28.33333</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>210</v>
+      </c>
+      <c r="X8" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>3005.9999799999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>42881</v>
+      </c>
+      <c r="B9" s="3">
+        <v>480</v>
+      </c>
+      <c r="C9" s="3">
+        <v>390</v>
+      </c>
+      <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>120</v>
+      </c>
+      <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>115</v>
+      </c>
+      <c r="H9" s="3">
+        <v>102</v>
+      </c>
+      <c r="I9" s="3">
+        <v>240</v>
+      </c>
+      <c r="J9" s="3">
+        <v>60</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>180</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>60</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>145</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>680</v>
+      </c>
+      <c r="R9" s="3">
+        <v>150</v>
+      </c>
+      <c r="S9" s="3">
+        <v>30</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>90</v>
+      </c>
+      <c r="X9" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>42888</v>
+      </c>
+      <c r="B10" s="3">
+        <v>990</v>
+      </c>
+      <c r="C10" s="3">
+        <v>690</v>
+      </c>
+      <c r="D10" s="3">
+        <v>450</v>
+      </c>
+      <c r="E10" s="3">
+        <v>180</v>
+      </c>
+      <c r="F10" s="3">
+        <v>360</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3">
+        <v>306</v>
+      </c>
+      <c r="I10" s="3">
+        <v>570</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>180</v>
+      </c>
+      <c r="L10" s="3">
+        <v>30</v>
+      </c>
+      <c r="M10" s="3">
+        <v>30</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
+        <v>60</v>
+      </c>
+      <c r="P10" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>34</v>
+      </c>
+      <c r="R10" s="3">
+        <v>30</v>
+      </c>
+      <c r="S10" s="3">
+        <v>390</v>
+      </c>
+      <c r="T10" s="3">
+        <v>150</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>120</v>
+      </c>
+      <c r="X10" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>4672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>42895</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1258.3333299999999</v>
+      </c>
+      <c r="C11" s="3">
+        <v>444.33332999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>474.33332999999999</v>
+      </c>
+      <c r="E11" s="3">
+        <v>540</v>
+      </c>
+      <c r="F11" s="3">
+        <v>200</v>
+      </c>
+      <c r="G11" s="3">
+        <v>596</v>
+      </c>
+      <c r="H11" s="3">
+        <v>312</v>
+      </c>
+      <c r="I11" s="3">
+        <v>150</v>
+      </c>
+      <c r="J11" s="3">
+        <v>30</v>
+      </c>
+      <c r="K11" s="3">
+        <v>510</v>
+      </c>
+      <c r="L11" s="3">
+        <v>58.333330000000004</v>
+      </c>
+      <c r="M11" s="3">
+        <v>116</v>
+      </c>
+      <c r="N11" s="3">
+        <v>58.333330000000004</v>
+      </c>
+      <c r="O11" s="3">
+        <v>60</v>
+      </c>
+      <c r="P11" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>30</v>
+      </c>
+      <c r="S11" s="3">
+        <v>270</v>
+      </c>
+      <c r="T11" s="3">
+        <v>474.33332999999999</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>480</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>6142.9999800000014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>42902</v>
+      </c>
+      <c r="B12" s="3">
+        <v>960</v>
+      </c>
+      <c r="C12" s="3">
+        <v>660</v>
+      </c>
+      <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>510</v>
+      </c>
+      <c r="F12" s="3">
+        <v>270</v>
+      </c>
+      <c r="G12" s="3">
+        <v>570</v>
+      </c>
+      <c r="H12" s="3">
+        <v>390</v>
+      </c>
+      <c r="I12" s="3">
+        <v>270</v>
+      </c>
+      <c r="J12" s="3">
+        <v>510</v>
+      </c>
+      <c r="K12" s="3">
+        <v>270</v>
+      </c>
+      <c r="L12" s="3">
+        <v>90</v>
+      </c>
+      <c r="M12" s="3">
+        <v>510</v>
+      </c>
+      <c r="N12" s="3">
+        <v>30</v>
+      </c>
+      <c r="O12" s="3">
+        <v>90</v>
+      </c>
+      <c r="P12" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>30</v>
+      </c>
+      <c r="S12" s="3">
+        <v>30</v>
+      </c>
+      <c r="T12" s="3">
+        <v>210</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>390</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>6188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>42909</v>
+      </c>
+      <c r="B13" s="3">
+        <v>810</v>
+      </c>
+      <c r="C13" s="3">
+        <v>210</v>
+      </c>
+      <c r="D13" s="3">
+        <v>390</v>
+      </c>
+      <c r="E13" s="3">
+        <v>750</v>
+      </c>
+      <c r="F13" s="3">
+        <v>300</v>
+      </c>
+      <c r="G13" s="3">
+        <v>90</v>
+      </c>
+      <c r="H13" s="3">
+        <v>288</v>
+      </c>
+      <c r="I13" s="3">
+        <v>420</v>
+      </c>
+      <c r="J13" s="3">
+        <v>390</v>
+      </c>
+      <c r="K13" s="3">
+        <v>120</v>
+      </c>
+      <c r="L13" s="3">
+        <v>60</v>
+      </c>
+      <c r="M13" s="3">
+        <v>300</v>
+      </c>
+      <c r="N13" s="3">
+        <v>30</v>
+      </c>
+      <c r="O13" s="3">
+        <v>60</v>
+      </c>
+      <c r="P13" s="3">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>30</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>60</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>42916</v>
+      </c>
+      <c r="B14" s="3">
+        <v>689.54544999999996</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1227.4242400000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>749.54544999999996</v>
+      </c>
+      <c r="E14" s="3">
+        <v>359.09090000000003</v>
+      </c>
+      <c r="F14" s="3">
+        <v>809.54545000000007</v>
+      </c>
+      <c r="G14" s="3">
+        <v>599.09090000000003</v>
+      </c>
+      <c r="H14" s="3">
+        <v>390</v>
+      </c>
+      <c r="I14" s="3">
+        <v>329.09090000000003</v>
+      </c>
+      <c r="J14" s="3">
+        <v>147.87879000000001</v>
+      </c>
+      <c r="K14" s="3">
+        <v>448.25756999999999</v>
+      </c>
+      <c r="L14" s="3">
+        <v>419.54544999999996</v>
+      </c>
+      <c r="M14" s="3">
+        <v>89.545450000000002</v>
+      </c>
+      <c r="N14" s="3">
+        <v>479.54545000000002</v>
+      </c>
+      <c r="O14" s="3">
+        <v>419.54544999999996</v>
+      </c>
+      <c r="P14" s="3">
+        <v>808.25756999999999</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>68</v>
+      </c>
+      <c r="R14" s="3">
+        <v>89.545450000000002</v>
+      </c>
+      <c r="S14" s="3">
+        <v>420</v>
+      </c>
+      <c r="T14" s="3">
+        <v>89.545450000000002</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>8664.9999199999966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>42923</v>
+      </c>
+      <c r="B15" s="3">
+        <v>420</v>
+      </c>
+      <c r="C15" s="3">
+        <v>300</v>
+      </c>
+      <c r="D15" s="3">
+        <v>630</v>
+      </c>
+      <c r="E15" s="3">
+        <v>90</v>
+      </c>
+      <c r="F15" s="3">
+        <v>120</v>
+      </c>
+      <c r="G15" s="3">
+        <v>480</v>
+      </c>
+      <c r="H15" s="3">
+        <v>204</v>
+      </c>
+      <c r="I15" s="3">
+        <v>30</v>
+      </c>
+      <c r="J15" s="3">
+        <v>240</v>
+      </c>
+      <c r="K15" s="3">
+        <v>60</v>
+      </c>
+      <c r="L15" s="3">
+        <v>90</v>
+      </c>
+      <c r="M15" s="3">
+        <v>90</v>
+      </c>
+      <c r="N15" s="3">
+        <v>360</v>
+      </c>
+      <c r="O15" s="3">
+        <v>270</v>
+      </c>
+      <c r="P15" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>34</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>30</v>
+      </c>
+      <c r="T15" s="3">
+        <v>90</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>42930</v>
+      </c>
+      <c r="B16" s="3">
+        <v>390</v>
+      </c>
+      <c r="C16" s="3">
+        <v>150</v>
+      </c>
+      <c r="D16" s="3">
+        <v>120</v>
+      </c>
+      <c r="E16" s="3">
+        <v>150</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
+        <v>150</v>
+      </c>
+      <c r="H16" s="3">
+        <v>144</v>
+      </c>
+      <c r="I16" s="3">
+        <v>90</v>
+      </c>
+      <c r="J16" s="3">
+        <v>450</v>
+      </c>
+      <c r="K16" s="3">
+        <v>300</v>
+      </c>
+      <c r="L16" s="3">
+        <v>30</v>
+      </c>
+      <c r="M16" s="3">
+        <v>360</v>
+      </c>
+      <c r="N16" s="3">
+        <v>90</v>
+      </c>
+      <c r="O16" s="3">
+        <v>150</v>
+      </c>
+      <c r="P16" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>34</v>
+      </c>
+      <c r="R16" s="3">
+        <v>120</v>
+      </c>
+      <c r="S16" s="3">
+        <v>90</v>
+      </c>
+      <c r="T16" s="3">
+        <v>30</v>
+      </c>
+      <c r="U16" s="3">
+        <v>210</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3">
+        <v>60</v>
+      </c>
+      <c r="X16" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>42937</v>
+      </c>
+      <c r="B17" s="3">
+        <v>360</v>
+      </c>
+      <c r="C17" s="3">
+        <v>150</v>
+      </c>
+      <c r="D17" s="3">
+        <v>180</v>
+      </c>
+      <c r="E17" s="3">
+        <v>90</v>
+      </c>
+      <c r="F17" s="3">
+        <v>270</v>
+      </c>
+      <c r="G17" s="3">
+        <v>30</v>
+      </c>
+      <c r="H17" s="3">
+        <v>120</v>
+      </c>
+      <c r="I17" s="3">
+        <v>120</v>
+      </c>
+      <c r="J17" s="3">
+        <v>60</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>180</v>
+      </c>
+      <c r="N17" s="3">
+        <v>30</v>
+      </c>
+      <c r="O17" s="3">
+        <v>30</v>
+      </c>
+      <c r="P17" s="3">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>136</v>
+      </c>
+      <c r="R17" s="3">
+        <v>240</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>180</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>90</v>
+      </c>
+      <c r="X17" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>42944</v>
+      </c>
+      <c r="B18" s="3">
+        <v>360</v>
+      </c>
+      <c r="C18" s="3">
+        <v>360</v>
+      </c>
+      <c r="D18" s="3">
+        <v>90</v>
+      </c>
+      <c r="E18" s="3">
+        <v>90</v>
+      </c>
+      <c r="F18" s="3">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3">
+        <v>240</v>
+      </c>
+      <c r="H18" s="3">
+        <v>102</v>
+      </c>
+      <c r="I18" s="3">
+        <v>210</v>
+      </c>
+      <c r="J18" s="3">
+        <v>30</v>
+      </c>
+      <c r="K18" s="3">
+        <v>30</v>
+      </c>
+      <c r="L18" s="3">
+        <v>90</v>
+      </c>
+      <c r="M18" s="3">
+        <v>90</v>
+      </c>
+      <c r="N18" s="3">
+        <v>90</v>
+      </c>
+      <c r="O18" s="3">
+        <v>90</v>
+      </c>
+      <c r="P18" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>102</v>
+      </c>
+      <c r="R18" s="3">
+        <v>90</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>60</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>42951</v>
+      </c>
+      <c r="B19" s="3">
+        <v>270</v>
+      </c>
+      <c r="C19" s="3">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3">
+        <v>390</v>
+      </c>
+      <c r="E19" s="3">
+        <v>270</v>
+      </c>
+      <c r="F19" s="3">
+        <v>330</v>
+      </c>
+      <c r="G19" s="3">
+        <v>120</v>
+      </c>
+      <c r="H19" s="3">
+        <v>192</v>
+      </c>
+      <c r="I19" s="3">
+        <v>180</v>
+      </c>
+      <c r="J19" s="3">
+        <v>30</v>
+      </c>
+      <c r="K19" s="3">
+        <v>60</v>
+      </c>
+      <c r="L19" s="3">
+        <v>210</v>
+      </c>
+      <c r="M19" s="3">
+        <v>60</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>60</v>
+      </c>
+      <c r="P19" s="3">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>180</v>
+      </c>
+      <c r="X19" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>42958</v>
+      </c>
+      <c r="B20" s="3">
+        <v>120</v>
+      </c>
+      <c r="C20" s="3">
+        <v>240</v>
+      </c>
+      <c r="D20" s="3">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>240</v>
+      </c>
+      <c r="F20" s="3">
+        <v>150</v>
+      </c>
+      <c r="G20" s="3">
+        <v>150</v>
+      </c>
+      <c r="H20" s="3">
+        <v>126</v>
+      </c>
+      <c r="I20" s="3">
+        <v>90</v>
+      </c>
+      <c r="J20" s="3">
+        <v>210</v>
+      </c>
+      <c r="K20" s="3">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3">
+        <v>150</v>
+      </c>
+      <c r="M20" s="3">
+        <v>60</v>
+      </c>
+      <c r="N20" s="3">
+        <v>30</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>34</v>
+      </c>
+      <c r="R20" s="3">
+        <v>150</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>60</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>30</v>
+      </c>
+      <c r="X20" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>84</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>42965</v>
+      </c>
+      <c r="B21" s="3">
+        <v>210</v>
+      </c>
+      <c r="C21" s="3">
+        <v>540</v>
+      </c>
+      <c r="D21" s="3">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3">
+        <v>30</v>
+      </c>
+      <c r="F21" s="3">
+        <v>330</v>
+      </c>
+      <c r="G21" s="3">
+        <v>180</v>
+      </c>
+      <c r="H21" s="3">
+        <v>144</v>
+      </c>
+      <c r="I21" s="3">
+        <v>120</v>
+      </c>
+      <c r="J21" s="3">
+        <v>180</v>
+      </c>
+      <c r="K21" s="3">
+        <v>60</v>
+      </c>
+      <c r="L21" s="3">
+        <v>30</v>
+      </c>
+      <c r="M21" s="3">
+        <v>90</v>
+      </c>
+      <c r="N21" s="3">
+        <v>30</v>
+      </c>
+      <c r="O21" s="3">
+        <v>30</v>
+      </c>
+      <c r="P21" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>170</v>
+      </c>
+      <c r="R21" s="3">
+        <v>120</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>30</v>
+      </c>
+      <c r="U21" s="3">
+        <v>240</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>42972</v>
+      </c>
+      <c r="B22" s="3">
+        <v>30</v>
+      </c>
+      <c r="C22" s="3">
+        <v>300</v>
+      </c>
+      <c r="D22" s="3">
+        <v>90</v>
+      </c>
+      <c r="E22" s="3">
+        <v>150</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>210</v>
+      </c>
+      <c r="H22" s="3">
+        <v>78</v>
+      </c>
+      <c r="I22" s="3">
+        <v>180</v>
+      </c>
+      <c r="J22" s="3">
+        <v>90</v>
+      </c>
+      <c r="K22" s="3">
+        <v>30</v>
+      </c>
+      <c r="L22" s="3">
+        <v>330</v>
+      </c>
+      <c r="M22" s="3">
+        <v>90</v>
+      </c>
+      <c r="N22" s="3">
+        <v>120</v>
+      </c>
+      <c r="O22" s="3">
+        <v>30</v>
+      </c>
+      <c r="P22" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>150</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>210</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>42979</v>
+      </c>
+      <c r="B23" s="3">
+        <v>120</v>
+      </c>
+      <c r="C23" s="3">
+        <v>270</v>
+      </c>
+      <c r="D23" s="3">
+        <v>150</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>150</v>
+      </c>
+      <c r="G23" s="3">
+        <v>180</v>
+      </c>
+      <c r="H23" s="3">
+        <v>114</v>
+      </c>
+      <c r="I23" s="3">
+        <v>60</v>
+      </c>
+      <c r="J23" s="3">
+        <v>90</v>
+      </c>
+      <c r="K23" s="3">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3">
+        <v>270</v>
+      </c>
+      <c r="M23" s="3">
+        <v>150</v>
+      </c>
+      <c r="N23" s="3">
+        <v>210</v>
+      </c>
+      <c r="O23" s="3">
+        <v>60</v>
+      </c>
+      <c r="P23" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>30</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>42986</v>
+      </c>
+      <c r="B24" s="3">
+        <v>210</v>
+      </c>
+      <c r="C24" s="3">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3">
+        <v>210</v>
+      </c>
+      <c r="E24" s="3">
+        <v>60</v>
+      </c>
+      <c r="F24" s="3">
+        <v>150</v>
+      </c>
+      <c r="G24" s="3">
+        <v>240</v>
+      </c>
+      <c r="H24" s="3">
+        <v>114</v>
+      </c>
+      <c r="I24" s="3">
+        <v>150</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>150</v>
+      </c>
+      <c r="L24" s="3">
+        <v>30</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>120</v>
+      </c>
+      <c r="O24" s="3">
+        <v>180</v>
+      </c>
+      <c r="P24" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>60</v>
+      </c>
+      <c r="S24" s="3">
+        <v>30</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>16</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>42993</v>
+      </c>
+      <c r="B25" s="3">
+        <v>150</v>
+      </c>
+      <c r="C25" s="3">
+        <v>30</v>
+      </c>
+      <c r="D25" s="3">
+        <v>120</v>
+      </c>
+      <c r="E25" s="3">
+        <v>120</v>
+      </c>
+      <c r="F25" s="3">
+        <v>60</v>
+      </c>
+      <c r="G25" s="3">
+        <v>180</v>
+      </c>
+      <c r="H25" s="3">
+        <v>72</v>
+      </c>
+      <c r="I25" s="3">
+        <v>150</v>
+      </c>
+      <c r="J25" s="3">
+        <v>150</v>
+      </c>
+      <c r="K25" s="3">
+        <v>90</v>
+      </c>
+      <c r="L25" s="3">
+        <v>30</v>
+      </c>
+      <c r="M25" s="3">
+        <v>150</v>
+      </c>
+      <c r="N25" s="3">
+        <v>150</v>
+      </c>
+      <c r="O25" s="3">
+        <v>210</v>
+      </c>
+      <c r="P25" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>60</v>
+      </c>
+      <c r="S25" s="3">
+        <v>60</v>
+      </c>
+      <c r="T25" s="3">
+        <v>60</v>
+      </c>
+      <c r="U25" s="3">
+        <v>30</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>43000</v>
+      </c>
+      <c r="B26" s="3">
+        <v>480</v>
+      </c>
+      <c r="C26" s="3">
+        <v>120</v>
+      </c>
+      <c r="D26" s="3">
+        <v>180</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>363.33332999999999</v>
+      </c>
+      <c r="G26" s="3">
+        <v>186.66667000000001</v>
+      </c>
+      <c r="H26" s="3">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3">
+        <v>60</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>120</v>
+      </c>
+      <c r="L26" s="3">
+        <v>60</v>
+      </c>
+      <c r="M26" s="3">
+        <v>90</v>
+      </c>
+      <c r="N26" s="3">
+        <v>30</v>
+      </c>
+      <c r="O26" s="3">
+        <v>60</v>
+      </c>
+      <c r="P26" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>90</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>30</v>
+      </c>
+      <c r="U26" s="3">
+        <v>30</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>43007</v>
+      </c>
+      <c r="B27" s="3">
+        <v>240</v>
+      </c>
+      <c r="C27" s="3">
+        <v>120</v>
+      </c>
+      <c r="D27" s="3">
+        <v>330</v>
+      </c>
+      <c r="E27" s="3">
+        <v>120</v>
+      </c>
+      <c r="F27" s="3">
+        <v>150</v>
+      </c>
+      <c r="G27" s="3">
+        <v>60</v>
+      </c>
+      <c r="H27" s="3">
+        <v>54</v>
+      </c>
+      <c r="I27" s="3">
+        <v>30</v>
+      </c>
+      <c r="J27" s="3">
+        <v>90</v>
+      </c>
+      <c r="K27" s="3">
+        <v>90</v>
+      </c>
+      <c r="L27" s="3">
+        <v>90</v>
+      </c>
+      <c r="M27" s="3">
+        <v>30</v>
+      </c>
+      <c r="N27" s="3">
+        <v>60</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>30</v>
+      </c>
+      <c r="S27" s="3">
+        <v>90</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>30</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>1652</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADEC172-1EF7-424A-8D01-AB5B31680469}">
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="27" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
@@ -7470,112 +7833,6 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <f>SUM(B2:B27)</f>
-        <v>4230.8333400000001</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:AB28" si="0">SUM(C2:C27)</f>
-        <v>3959.2452800000001</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>3720</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>3520</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>3240</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>2520</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>2326.0157199999999</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>2160</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="0"/>
-        <v>2040</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>1480</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>1280</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>1240</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>1160</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="0"/>
-        <v>675</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="0"/>
-        <v>293</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="0"/>
-        <v>79.905659999999997</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
